--- a/00-paper/risk difference example/old/meeting 11_21_2019.xlsx
+++ b/00-paper/risk difference example/old/meeting 11_21_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ekwiatko\Documents\GitHub\Bayesian-Sequential-Monitoring\00-paper\risk difference example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ekwiatko\Documents\GitHub\Bayesian-Sequential-Monitoring\00-paper\risk difference example\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1437,8 @@
       <c r="I21" s="6"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>